--- a/BackTest/2019-10-31 BackTest BHP.xlsx
+++ b/BackTest/2019-10-31 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-20.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4.100000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1190</v>
@@ -521,7 +521,7 @@
         <v>-4.100000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1192</v>
@@ -562,7 +562,7 @@
         <v>-4.100000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1192</v>
@@ -603,7 +603,7 @@
         <v>-4.100000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1192</v>
@@ -640,7 +640,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1192</v>
@@ -681,7 +681,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1190</v>
@@ -722,7 +722,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1190</v>
@@ -759,7 +759,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1190</v>
@@ -800,9 +800,11 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1190</v>
+      </c>
       <c r="J11" t="n">
         <v>1190</v>
       </c>
@@ -839,7 +841,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1190</v>
@@ -876,7 +878,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1190</v>
@@ -917,7 +919,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1190</v>
@@ -958,7 +960,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1190</v>
@@ -999,9 +1001,11 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1190</v>
+      </c>
       <c r="J16" t="n">
         <v>1190</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1190</v>
@@ -1079,7 +1083,7 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1190</v>
@@ -1120,9 +1124,11 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1190</v>
+      </c>
       <c r="J19" t="n">
         <v>1190</v>
       </c>
@@ -1159,9 +1165,11 @@
         <v>-8.600000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1190</v>
+      </c>
       <c r="J20" t="n">
         <v>1190</v>
       </c>
@@ -1198,9 +1206,11 @@
         <v>1129.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1190</v>
+      </c>
       <c r="J21" t="n">
         <v>1190</v>
       </c>
@@ -1237,9 +1247,11 @@
         <v>135524.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1193</v>
+      </c>
       <c r="J22" t="n">
         <v>1190</v>
       </c>
@@ -1276,9 +1288,11 @@
         <v>135524.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1194</v>
+      </c>
       <c r="J23" t="n">
         <v>1190</v>
       </c>
@@ -10948,9 +10962,11 @@
         <v>1082114.7064</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1194</v>
+      </c>
       <c r="J271" t="n">
         <v>1190</v>
       </c>
@@ -10987,9 +11003,11 @@
         <v>1082114.7064</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1194</v>
+      </c>
       <c r="J272" t="n">
         <v>1190</v>
       </c>
@@ -11026,9 +11044,11 @@
         <v>1082114.7064</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1194</v>
+      </c>
       <c r="J273" t="n">
         <v>1190</v>
       </c>
@@ -11065,9 +11085,11 @@
         <v>1082114.7064</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1194</v>
+      </c>
       <c r="J274" t="n">
         <v>1190</v>
       </c>
@@ -11104,9 +11126,11 @@
         <v>1082106.2559</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1194</v>
+      </c>
       <c r="J275" t="n">
         <v>1190</v>
       </c>
@@ -11143,9 +11167,11 @@
         <v>1082101.4559</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1193</v>
+      </c>
       <c r="J276" t="n">
         <v>1190</v>
       </c>
@@ -11182,9 +11208,11 @@
         <v>1082101.4559</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1192</v>
+      </c>
       <c r="J277" t="n">
         <v>1190</v>
       </c>
@@ -11221,9 +11249,11 @@
         <v>1082101.4559</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1192</v>
+      </c>
       <c r="J278" t="n">
         <v>1190</v>
       </c>
@@ -11260,9 +11290,11 @@
         <v>1082119.62</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1192</v>
+      </c>
       <c r="J279" t="n">
         <v>1190</v>
       </c>
@@ -11299,9 +11331,11 @@
         <v>1082118.32</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1194</v>
+      </c>
       <c r="J280" t="n">
         <v>1190</v>
       </c>
@@ -11338,9 +11372,11 @@
         <v>1082118.32</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1192</v>
+      </c>
       <c r="J281" t="n">
         <v>1190</v>
       </c>
@@ -11377,9 +11413,11 @@
         <v>1082108.32</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1192</v>
+      </c>
       <c r="J282" t="n">
         <v>1190</v>
       </c>
@@ -11416,9 +11454,11 @@
         <v>1082108.32</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1190</v>
+      </c>
       <c r="J283" t="n">
         <v>1190</v>
       </c>
@@ -11455,9 +11495,11 @@
         <v>1082108.32</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1190</v>
+      </c>
       <c r="J284" t="n">
         <v>1190</v>
       </c>
@@ -11494,9 +11536,11 @@
         <v>1083472.8204</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1190</v>
+      </c>
       <c r="J285" t="n">
         <v>1190</v>
       </c>
@@ -11533,9 +11577,11 @@
         <v>1083472.8204</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1195</v>
+      </c>
       <c r="J286" t="n">
         <v>1190</v>
       </c>
@@ -11572,9 +11618,11 @@
         <v>1083472.8204</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1195</v>
+      </c>
       <c r="J287" t="n">
         <v>1190</v>
       </c>
@@ -11611,9 +11659,11 @@
         <v>1083472.8204</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1195</v>
+      </c>
       <c r="J288" t="n">
         <v>1190</v>
       </c>
@@ -11650,9 +11700,11 @@
         <v>1084513.63736641</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1195</v>
+      </c>
       <c r="J289" t="n">
         <v>1190</v>
       </c>
@@ -11689,9 +11741,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1203</v>
+      </c>
       <c r="J290" t="n">
         <v>1190</v>
       </c>
@@ -11728,9 +11782,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1195</v>
+      </c>
       <c r="J291" t="n">
         <v>1190</v>
       </c>
@@ -11767,9 +11823,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1195</v>
+      </c>
       <c r="J292" t="n">
         <v>1190</v>
       </c>
@@ -11806,9 +11864,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1195</v>
+      </c>
       <c r="J293" t="n">
         <v>1190</v>
       </c>
@@ -11845,9 +11905,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1195</v>
+      </c>
       <c r="J294" t="n">
         <v>1190</v>
       </c>
@@ -11884,9 +11946,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1195</v>
+      </c>
       <c r="J295" t="n">
         <v>1190</v>
       </c>
@@ -11923,9 +11987,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1195</v>
+      </c>
       <c r="J296" t="n">
         <v>1190</v>
       </c>
@@ -11962,9 +12028,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1195</v>
+      </c>
       <c r="J297" t="n">
         <v>1190</v>
       </c>
@@ -12001,9 +12069,11 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1195</v>
+      </c>
       <c r="J298" t="n">
         <v>1190</v>
       </c>
@@ -12040,9 +12110,11 @@
         <v>1084517.33736641</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1195</v>
+      </c>
       <c r="J299" t="n">
         <v>1190</v>
       </c>
@@ -18124,7 +18196,7 @@
         <v>1086726.00612732</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
@@ -18132,11 +18204,11 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>1.021890756302521</v>
+        <v>1</v>
       </c>
       <c r="M455" t="inlineStr"/>
     </row>
@@ -18163,11 +18235,17 @@
         <v>1086730.30612732</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18196,11 +18274,17 @@
         <v>1087189.88482732</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18229,11 +18313,17 @@
         <v>1087177.48482732</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18262,11 +18352,17 @@
         <v>1087177.48482732</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18295,11 +18391,17 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18328,11 +18430,17 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18361,13 +18469,19 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L462" t="n">
-        <v>1</v>
+        <v>1.024411764705882</v>
       </c>
       <c r="M462" t="inlineStr"/>
     </row>
@@ -18394,7 +18508,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18427,7 +18541,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18460,7 +18574,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18493,7 +18607,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18526,7 +18640,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18559,7 +18673,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18592,7 +18706,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18625,7 +18739,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18658,7 +18772,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18691,7 +18805,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18724,7 +18838,7 @@
         <v>1087547.64642732</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18757,7 +18871,7 @@
         <v>1087530.84642732</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18790,7 +18904,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18823,7 +18937,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18856,7 +18970,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18889,7 +19003,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18922,7 +19036,7 @@
         <v>1087542.57102732</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18955,7 +19069,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18988,7 +19102,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19021,7 +19135,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19054,7 +19168,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19087,7 +19201,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19120,7 +19234,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19153,7 +19267,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19186,7 +19300,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19219,7 +19333,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19252,7 +19366,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19285,7 +19399,7 @@
         <v>1087526.98535956</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19318,7 +19432,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19351,7 +19465,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19384,7 +19498,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19417,7 +19531,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19450,7 +19564,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19483,7 +19597,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19516,7 +19630,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19549,7 +19663,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19582,7 +19696,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19615,7 +19729,7 @@
         <v>1087548.38535956</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19648,7 +19762,7 @@
         <v>1087548.38535956</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19681,7 +19795,7 @@
         <v>1087548.38535956</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19714,7 +19828,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19747,7 +19861,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19780,7 +19894,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19813,7 +19927,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19846,7 +19960,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19879,7 +19993,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19912,7 +20026,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19945,7 +20059,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19978,7 +20092,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20011,7 +20125,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20044,7 +20158,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20077,7 +20191,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20110,7 +20224,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20143,7 +20257,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20176,7 +20290,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20209,7 +20323,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20242,7 +20356,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20275,7 +20389,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20308,7 +20422,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20341,7 +20455,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20374,7 +20488,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20407,7 +20521,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20440,7 +20554,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20473,7 +20587,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20506,7 +20620,7 @@
         <v>1087516.38535956</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20539,7 +20653,7 @@
         <v>1087501.68535956</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20572,7 +20686,7 @@
         <v>1087529.2039757</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20605,7 +20719,7 @@
         <v>1087533.9039757</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20638,7 +20752,7 @@
         <v>1083807.6162757</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20671,7 +20785,7 @@
         <v>1083780.5768757</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20704,7 +20818,7 @@
         <v>1083780.5768757</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20737,7 +20851,7 @@
         <v>1083717.2768757</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20770,7 +20884,7 @@
         <v>1083272.2136757</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20803,7 +20917,7 @@
         <v>1083337.3136757</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20836,7 +20950,7 @@
         <v>1083419.5504757</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20869,7 +20983,7 @@
         <v>1083452.9504757</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20902,7 +21016,7 @@
         <v>1083387.8504757</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20935,7 +21049,7 @@
         <v>1083379.2504757</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -26941,7 +27055,7 @@
         <v>805330.5905265101</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26974,7 +27088,7 @@
         <v>805296.1905265101</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27007,7 +27121,7 @@
         <v>805325.9905265102</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27040,7 +27154,7 @@
         <v>805269.9039265101</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27073,7 +27187,7 @@
         <v>805348.2173265101</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27106,7 +27220,7 @@
         <v>805348.4970265101</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27139,7 +27253,7 @@
         <v>805330.37842651</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27172,7 +27286,7 @@
         <v>805930.37842651</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27205,7 +27319,7 @@
         <v>805351.96492651</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27238,7 +27352,7 @@
         <v>805381.76492651</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27249,6 +27363,6 @@
       <c r="M731" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest BHP.xlsx
+++ b/BackTest/2019-10-31 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1288,11 +1288,9 @@
         <v>135524.7</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1190</v>
       </c>
@@ -10962,11 +10960,9 @@
         <v>1082114.7064</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>1190</v>
       </c>
@@ -11003,11 +10999,9 @@
         <v>1082114.7064</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>1190</v>
       </c>
@@ -11044,11 +11038,9 @@
         <v>1082114.7064</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>1190</v>
       </c>
@@ -11085,11 +11077,9 @@
         <v>1082114.7064</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>1190</v>
       </c>
@@ -11126,11 +11116,9 @@
         <v>1082106.2559</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>1190</v>
       </c>
@@ -11167,11 +11155,9 @@
         <v>1082101.4559</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
         <v>1190</v>
       </c>
@@ -11208,11 +11194,9 @@
         <v>1082101.4559</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>1190</v>
       </c>
@@ -11249,11 +11233,9 @@
         <v>1082101.4559</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
         <v>1190</v>
       </c>
@@ -11290,11 +11272,9 @@
         <v>1082119.62</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>1190</v>
       </c>
@@ -11331,11 +11311,9 @@
         <v>1082118.32</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>1190</v>
       </c>
@@ -11372,11 +11350,9 @@
         <v>1082118.32</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>1190</v>
       </c>
@@ -11413,11 +11389,9 @@
         <v>1082108.32</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>1190</v>
       </c>
@@ -11454,11 +11428,9 @@
         <v>1082108.32</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>1190</v>
       </c>
@@ -11495,11 +11467,9 @@
         <v>1082108.32</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>1190</v>
       </c>
@@ -11536,11 +11506,9 @@
         <v>1083472.8204</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
         <v>1190</v>
       </c>
@@ -11577,11 +11545,9 @@
         <v>1083472.8204</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>1190</v>
       </c>
@@ -11618,11 +11584,9 @@
         <v>1083472.8204</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>1190</v>
       </c>
@@ -11659,11 +11623,9 @@
         <v>1083472.8204</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>1190</v>
       </c>
@@ -11700,11 +11662,9 @@
         <v>1084513.63736641</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>1190</v>
       </c>
@@ -11741,11 +11701,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>1190</v>
       </c>
@@ -11782,11 +11740,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
         <v>1190</v>
       </c>
@@ -11823,11 +11779,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>1190</v>
       </c>
@@ -11864,11 +11818,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>1190</v>
       </c>
@@ -11905,11 +11857,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>1190</v>
       </c>
@@ -11946,11 +11896,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>1190</v>
       </c>
@@ -11987,11 +11935,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
         <v>1190</v>
       </c>
@@ -12028,11 +11974,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>1190</v>
       </c>
@@ -12069,11 +12013,9 @@
         <v>1084511.03736641</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>1190</v>
       </c>
@@ -12110,11 +12052,9 @@
         <v>1084517.33736641</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>1190</v>
       </c>
@@ -19234,7 +19174,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19267,7 +19207,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19300,7 +19240,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19333,7 +19273,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19366,7 +19306,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19399,7 +19339,7 @@
         <v>1087526.98535956</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19432,7 +19372,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19465,7 +19405,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19498,7 +19438,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19531,7 +19471,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19564,7 +19504,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19597,7 +19537,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19630,7 +19570,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19663,7 +19603,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19696,7 +19636,7 @@
         <v>1087519.38535956</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19729,7 +19669,7 @@
         <v>1087548.38535956</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19762,7 +19702,7 @@
         <v>1087548.38535956</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19795,7 +19735,7 @@
         <v>1087548.38535956</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19828,7 +19768,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19861,7 +19801,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19894,7 +19834,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19927,7 +19867,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19960,7 +19900,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19993,7 +19933,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20026,7 +19966,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20059,7 +19999,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20092,7 +20032,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20125,7 +20065,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20158,7 +20098,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20191,7 +20131,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20224,7 +20164,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20257,7 +20197,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20290,7 +20230,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20323,7 +20263,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20356,7 +20296,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20389,7 +20329,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20422,7 +20362,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20455,7 +20395,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20488,7 +20428,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20521,7 +20461,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20554,7 +20494,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20587,7 +20527,7 @@
         <v>1087529.68535956</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20620,7 +20560,7 @@
         <v>1087516.38535956</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20653,7 +20593,7 @@
         <v>1087501.68535956</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20686,7 +20626,7 @@
         <v>1087529.2039757</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20719,7 +20659,7 @@
         <v>1087533.9039757</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20752,7 +20692,7 @@
         <v>1083807.6162757</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20785,7 +20725,7 @@
         <v>1083780.5768757</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20818,7 +20758,7 @@
         <v>1083780.5768757</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20851,7 +20791,7 @@
         <v>1083717.2768757</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20884,7 +20824,7 @@
         <v>1083272.2136757</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20917,7 +20857,7 @@
         <v>1083337.3136757</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20950,7 +20890,7 @@
         <v>1083419.5504757</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20983,7 +20923,7 @@
         <v>1083452.9504757</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21016,7 +20956,7 @@
         <v>1083387.8504757</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21049,7 +20989,7 @@
         <v>1083379.2504757</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -26758,7 +26698,7 @@
         <v>800245.3675265101</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26791,7 +26731,7 @@
         <v>801311.3675265101</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26824,7 +26764,7 @@
         <v>802427.3675265101</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26857,7 +26797,7 @@
         <v>803223.3675265101</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26890,7 +26830,7 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26923,7 +26863,7 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26956,7 +26896,7 @@
         <v>804723.3879265101</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27055,7 +26995,7 @@
         <v>805330.5905265101</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27088,7 +27028,7 @@
         <v>805296.1905265101</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27121,7 +27061,7 @@
         <v>805325.9905265102</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27154,7 +27094,7 @@
         <v>805269.9039265101</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27187,7 +27127,7 @@
         <v>805348.2173265101</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27220,7 +27160,7 @@
         <v>805348.4970265101</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27253,7 +27193,7 @@
         <v>805330.37842651</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27286,7 +27226,7 @@
         <v>805930.37842651</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27319,7 +27259,7 @@
         <v>805351.96492651</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27352,7 +27292,7 @@
         <v>805381.76492651</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27363,6 +27303,6 @@
       <c r="M731" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest BHP.xlsx
+++ b/BackTest/2019-10-31 BackTest BHP.xlsx
@@ -1288,9 +1288,11 @@
         <v>135524.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1194</v>
+      </c>
       <c r="J23" t="n">
         <v>1190</v>
       </c>
@@ -18409,7 +18411,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
@@ -18417,11 +18419,11 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L462" t="n">
-        <v>1.024411764705882</v>
+        <v>1</v>
       </c>
       <c r="M462" t="inlineStr"/>
     </row>
@@ -18448,11 +18450,17 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18481,11 +18489,17 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18514,11 +18528,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18547,11 +18567,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18580,11 +18606,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18613,11 +18645,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18646,11 +18684,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18679,11 +18723,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18712,11 +18762,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18745,11 +18801,17 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18778,11 +18840,17 @@
         <v>1087547.64642732</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18811,11 +18879,17 @@
         <v>1087530.84642732</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18844,11 +18918,17 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18877,11 +18957,17 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18910,11 +18996,17 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18943,11 +19035,17 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18976,11 +19074,17 @@
         <v>1087542.57102732</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19009,11 +19113,17 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19042,11 +19152,17 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19075,11 +19191,17 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19108,11 +19230,17 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19141,11 +19269,17 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19177,8 +19311,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19210,8 +19350,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19243,8 +19389,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19276,8 +19428,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19309,8 +19467,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19342,8 +19506,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19375,8 +19545,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19408,8 +19584,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19441,8 +19623,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19474,8 +19662,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19507,8 +19701,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19540,8 +19740,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19573,8 +19779,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19606,8 +19818,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19639,8 +19857,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19672,8 +19896,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19705,8 +19935,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19738,8 +19974,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19771,8 +20013,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19804,8 +20052,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19837,8 +20091,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19870,8 +20130,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19903,8 +20169,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19936,8 +20208,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19969,8 +20247,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20002,8 +20286,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20035,8 +20325,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20068,8 +20364,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20101,8 +20403,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20134,8 +20442,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20167,8 +20481,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20200,8 +20520,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20233,8 +20559,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20266,8 +20598,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20299,8 +20637,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20332,8 +20676,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20365,8 +20715,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20398,8 +20754,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20431,8 +20793,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20464,8 +20832,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20497,8 +20871,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20530,8 +20910,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20563,8 +20949,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20596,8 +20988,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20629,8 +21027,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20662,8 +21066,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20695,8 +21105,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20728,8 +21144,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20761,8 +21183,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20794,8 +21222,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20827,8 +21261,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20860,8 +21300,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20893,8 +21339,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20926,8 +21378,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20959,8 +21417,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20992,8 +21456,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21025,8 +21495,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21058,8 +21534,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21091,8 +21573,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21124,8 +21612,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21157,8 +21651,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21190,8 +21690,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21223,8 +21729,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21256,8 +21768,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21289,8 +21807,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21322,8 +21846,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21355,8 +21885,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21388,8 +21924,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21421,8 +21963,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21454,8 +22002,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21487,8 +22041,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21520,8 +22080,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21553,8 +22119,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21586,8 +22158,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21619,8 +22197,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21652,8 +22236,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21685,8 +22275,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21718,8 +22314,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21751,8 +22353,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21784,8 +22392,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21817,8 +22431,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21850,8 +22470,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21883,8 +22509,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21916,8 +22548,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21949,8 +22587,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21982,8 +22626,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22015,8 +22665,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22048,8 +22704,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22081,8 +22743,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22114,8 +22782,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22147,8 +22821,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22180,8 +22860,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22213,8 +22899,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22246,8 +22938,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22279,8 +22977,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22312,8 +23016,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22345,8 +23055,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22378,8 +23094,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22411,8 +23133,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22444,8 +23172,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22477,8 +23211,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22510,8 +23250,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -22543,8 +23289,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -22576,8 +23328,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22609,8 +23367,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22642,8 +23406,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22675,8 +23445,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22708,8 +23484,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22741,8 +23523,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22774,8 +23562,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22807,8 +23601,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22840,8 +23640,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22873,8 +23679,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22906,8 +23718,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22939,8 +23757,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22972,8 +23796,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23005,8 +23835,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23038,8 +23874,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23071,8 +23913,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23104,8 +23952,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23137,8 +23991,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23170,8 +24030,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23203,8 +24069,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23236,8 +24108,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23269,8 +24147,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23302,8 +24186,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23335,8 +24225,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23368,8 +24264,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23401,8 +24303,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23434,8 +24342,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23467,8 +24381,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23500,8 +24420,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23533,8 +24459,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23566,8 +24498,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23599,8 +24537,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23632,8 +24576,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23665,8 +24615,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23698,8 +24654,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23731,8 +24693,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23764,8 +24732,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23797,8 +24771,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23830,8 +24810,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23863,8 +24849,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23896,8 +24888,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23929,8 +24927,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23962,8 +24966,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23995,8 +25005,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24028,8 +25044,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24061,8 +25083,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24094,8 +25122,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24127,8 +25161,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24160,8 +25200,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24193,8 +25239,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24226,8 +25278,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24259,8 +25317,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24292,8 +25356,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24325,8 +25395,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24358,8 +25434,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24391,8 +25473,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24424,8 +25512,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24457,8 +25551,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24490,8 +25590,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24523,8 +25629,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24556,8 +25668,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24589,8 +25707,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24622,8 +25746,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24655,8 +25785,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24688,8 +25824,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24721,8 +25863,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24754,8 +25902,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24787,8 +25941,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24820,8 +25980,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24853,8 +26019,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24886,8 +26058,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24919,8 +26097,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24952,8 +26136,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24985,8 +26175,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25018,8 +26214,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25051,8 +26253,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25084,8 +26292,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25117,8 +26331,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25150,8 +26370,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25183,8 +26409,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25216,8 +26448,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25249,8 +26487,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25282,8 +26526,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25315,8 +26565,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25348,8 +26604,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25381,8 +26643,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25414,8 +26682,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25447,8 +26721,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25480,8 +26760,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25513,8 +26799,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25546,8 +26838,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25579,8 +26877,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25612,8 +26916,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25645,8 +26955,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25678,8 +26994,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25711,8 +27033,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25744,8 +27072,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25777,8 +27111,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25810,8 +27150,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25843,8 +27189,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25876,8 +27228,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25909,8 +27267,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25942,8 +27306,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25975,8 +27345,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26008,8 +27384,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26041,8 +27423,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26074,8 +27462,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26107,8 +27501,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26140,8 +27540,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26173,8 +27579,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26206,8 +27618,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26239,8 +27657,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26272,8 +27696,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26305,8 +27735,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26338,8 +27774,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26371,8 +27813,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26404,8 +27852,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26437,8 +27891,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26470,8 +27930,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26503,8 +27969,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26536,8 +28008,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26569,8 +28047,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26602,8 +28086,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26635,8 +28125,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26668,8 +28164,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26698,11 +28200,17 @@
         <v>800245.3675265101</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26731,11 +28239,17 @@
         <v>801311.3675265101</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26764,11 +28278,17 @@
         <v>802427.3675265101</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26797,11 +28317,17 @@
         <v>803223.3675265101</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26830,11 +28356,17 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26863,11 +28395,17 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26896,11 +28434,17 @@
         <v>804723.3879265101</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26929,15 +28473,23 @@
         <v>805223.3879265101</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
+        <v>1.05046218487395</v>
+      </c>
+      <c r="M720" t="n">
+        <v>1.001680672268908</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -26962,7 +28514,7 @@
         <v>805394.6905265101</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26995,7 +28547,7 @@
         <v>805330.5905265101</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27028,7 +28580,7 @@
         <v>805296.1905265101</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27061,7 +28613,7 @@
         <v>805325.9905265102</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27094,7 +28646,7 @@
         <v>805269.9039265101</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27127,7 +28679,7 @@
         <v>805348.2173265101</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27160,7 +28712,7 @@
         <v>805348.4970265101</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27193,7 +28745,7 @@
         <v>805330.37842651</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27226,7 +28778,7 @@
         <v>805930.37842651</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27259,7 +28811,7 @@
         <v>805351.96492651</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27292,7 +28844,7 @@
         <v>805381.76492651</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
